--- a/资料/X1621串线设备资料.xlsx
+++ b/资料/X1621串线设备资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19425" windowHeight="9990" firstSheet="2" activeTab="8"/>
+    <workbookView windowWidth="19815" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="layout" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet2" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">layout!$A$1:$W$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">layout!$A$1:$W$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">地址!$E$1:$H$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">载具!$A$1:$T$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">接驳台1!$A$1:$D$20</definedName>
@@ -933,8 +933,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
@@ -960,8 +960,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -975,17 +976,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -996,18 +989,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1027,25 +1013,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1065,8 +1035,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1080,25 +1066,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1119,7 +1119,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1131,7 +1209,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1143,133 +1257,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1287,19 +1287,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1328,15 +1328,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1352,17 +1343,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1391,6 +1376,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1405,26 +1425,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1433,10 +1433,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1445,133 +1445,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3437,8 +3437,8 @@
   </sheetPr>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -3579,7 +3579,7 @@
     <row r="7" ht="12" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="62" orientation="landscape"/>
+  <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="landscape"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -5846,7 +5846,7 @@
   <sheetPr/>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/资料/X1621串线设备资料.xlsx
+++ b/资料/X1621串线设备资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860"/>
+    <workbookView windowWidth="19815" windowHeight="7860" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="layout" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="数据库" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet2" sheetId="9" r:id="rId9"/>
+    <sheet name="资讯申请单" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">layout!$A$1:$W$39</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="342">
   <si>
     <t>Station1</t>
   </si>
@@ -926,6 +927,135 @@
   </si>
   <si>
     <t>PLC5IP</t>
+  </si>
+  <si>
+    <t>表名称</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>可为空</t>
+  </si>
+  <si>
+    <t>默认</t>
+  </si>
+  <si>
+    <t>注释</t>
+  </si>
+  <si>
+    <t>VARCHAR2(30)</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>线体名称</t>
+  </si>
+  <si>
+    <t>NUMBER</t>
+  </si>
+  <si>
+    <t>站1板数量</t>
+  </si>
+  <si>
+    <t>站2板数量</t>
+  </si>
+  <si>
+    <t>站3板数量</t>
+  </si>
+  <si>
+    <t>站4板数量</t>
+  </si>
+  <si>
+    <t>站5板数量</t>
+  </si>
+  <si>
+    <t>站6板数量</t>
+  </si>
+  <si>
+    <t>站7板数量</t>
+  </si>
+  <si>
+    <t>站8板数量</t>
+  </si>
+  <si>
+    <t>站9板数量</t>
+  </si>
+  <si>
+    <t>站10板数量</t>
+  </si>
+  <si>
+    <t>站11板数量</t>
+  </si>
+  <si>
+    <t>站12板数量</t>
+  </si>
+  <si>
+    <t>站13板数量</t>
+  </si>
+  <si>
+    <t>站14板数量</t>
+  </si>
+  <si>
+    <t>站15板数量</t>
+  </si>
+  <si>
+    <t>站16板数量</t>
+  </si>
+  <si>
+    <t>站17板数量</t>
+  </si>
+  <si>
+    <t>站18板数量</t>
+  </si>
+  <si>
+    <t>站19板数量</t>
+  </si>
+  <si>
+    <t>站20板数量</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>sysdate</t>
+  </si>
+  <si>
+    <t>系统默认时间，不用上传</t>
+  </si>
+  <si>
+    <t>地址</t>
+  </si>
+  <si>
+    <t>qddb04.eavarytech.com</t>
+  </si>
+  <si>
+    <t>数据库</t>
+  </si>
+  <si>
+    <t>mesdb04</t>
+  </si>
+  <si>
+    <t>账户</t>
+  </si>
+  <si>
+    <t>ictdata</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>ictdata*168</t>
+  </si>
+  <si>
+    <t>权限</t>
+  </si>
+  <si>
+    <t>INSERT、SELECT、UPDATE</t>
   </si>
 </sst>
 </file>
@@ -933,8 +1063,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
@@ -960,14 +1090,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -975,37 +1097,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1035,9 +1136,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1060,6 +1160,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1067,15 +1182,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1098,7 +1212,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1119,13 +1249,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1137,133 +1417,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1275,31 +1429,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1329,49 +1459,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1405,23 +1502,56 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1433,10 +1563,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1445,138 +1575,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3437,7 +3573,7 @@
   </sheetPr>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
@@ -3451,122 +3587,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <v>0</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="3">
         <v>1</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="3">
         <v>10</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="3">
         <v>5</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="3">
         <v>1</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="3">
         <v>1</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
@@ -3582,6 +3718,439 @@
   <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="landscape"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="8.375" customWidth="1"/>
+    <col min="5" max="5" width="23.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>332</v>
+      </c>
+      <c r="B27" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>334</v>
+      </c>
+      <c r="B28" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>336</v>
+      </c>
+      <c r="B29" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>338</v>
+      </c>
+      <c r="B30" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>340</v>
+      </c>
+      <c r="B31" t="s">
+        <v>341</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:E2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -3612,780 +4181,780 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3" t="s">
+      <c r="J2" s="5"/>
+      <c r="K2" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3" t="s">
+      <c r="J7" s="5"/>
+      <c r="K7" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3" t="s">
+      <c r="J12" s="5"/>
+      <c r="K12" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
+      <c r="F13" s="5"/>
+      <c r="G13" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3" t="s">
+      <c r="H13" s="5"/>
+      <c r="I13" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="5" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="5"/>
+      <c r="G14" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3" t="s">
+      <c r="H14" s="5"/>
+      <c r="I14" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="5" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
+      <c r="F15" s="5"/>
+      <c r="G15" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3" t="s">
+      <c r="H15" s="5"/>
+      <c r="I15" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="5" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3" t="s">
+      <c r="D16" s="5"/>
+      <c r="E16" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3" t="s">
+      <c r="F16" s="5"/>
+      <c r="G16" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3" t="s">
+      <c r="H16" s="5"/>
+      <c r="I16" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="5" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3" t="s">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3" t="s">
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3" t="s">
+      <c r="H17" s="5"/>
+      <c r="I17" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="5" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3" t="s">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3" t="s">
+      <c r="F18" s="5"/>
+      <c r="G18" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3" t="s">
+      <c r="H18" s="5"/>
+      <c r="I18" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="5" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3" t="s">
+      <c r="D19" s="5"/>
+      <c r="E19" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3" t="s">
+      <c r="F19" s="5"/>
+      <c r="G19" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3" t="s">
+      <c r="H19" s="5"/>
+      <c r="I19" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="5" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3" t="s">
+      <c r="D20" s="5"/>
+      <c r="E20" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3" t="s">
+      <c r="F20" s="5"/>
+      <c r="G20" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3" t="s">
+      <c r="H20" s="5"/>
+      <c r="I20" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="5" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3" t="s">
+      <c r="D21" s="5"/>
+      <c r="E21" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3" t="s">
+      <c r="F21" s="5"/>
+      <c r="G21" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3" t="s">
+      <c r="D22" s="5"/>
+      <c r="E22" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3" t="s">
+      <c r="F22" s="5"/>
+      <c r="G22" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3" t="s">
+      <c r="H22" s="5"/>
+      <c r="I22" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3" t="s">
+      <c r="D23" s="5"/>
+      <c r="E23" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3" t="s">
+      <c r="F23" s="5"/>
+      <c r="G23" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3" t="s">
+      <c r="H23" s="5"/>
+      <c r="I23" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3" t="s">
+      <c r="J23" s="5"/>
+      <c r="K23" s="5" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3" t="s">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3" t="s">
+      <c r="D24" s="5"/>
+      <c r="E24" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3" t="s">
+      <c r="F24" s="5"/>
+      <c r="G24" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3" t="s">
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="K24" s="5" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3" t="s">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3" t="s">
+      <c r="D25" s="5"/>
+      <c r="E25" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3" t="s">
+      <c r="F25" s="5"/>
+      <c r="G25" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3" t="s">
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="K25" s="5" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3" t="s">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3" t="s">
+      <c r="D26" s="5"/>
+      <c r="E26" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3" t="s">
+      <c r="F26" s="5"/>
+      <c r="G26" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3" t="s">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3" t="s">
+      <c r="D27" s="5"/>
+      <c r="E27" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3" t="s">
+      <c r="F27" s="5"/>
+      <c r="G27" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3" t="s">
+      <c r="H27" s="5"/>
+      <c r="I27" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3" t="s">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3" t="s">
+      <c r="D28" s="5"/>
+      <c r="E28" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3" t="s">
+      <c r="F28" s="5"/>
+      <c r="G28" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3" t="s">
+      <c r="H28" s="5"/>
+      <c r="I28" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3" t="s">
+      <c r="J28" s="5"/>
+      <c r="K28" s="5" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3" t="s">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3" t="s">
+      <c r="D29" s="5"/>
+      <c r="E29" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="5"/>
+      <c r="G29" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3" t="s">
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="K29" s="5" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3" t="s">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3" t="s">
+      <c r="D30" s="5"/>
+      <c r="E30" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3" t="s">
+      <c r="F30" s="5"/>
+      <c r="G30" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3" t="s">
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="K30" s="5" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4419,280 +4988,280 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="5" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="5" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="5" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="5" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3" t="s">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3" t="s">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3" t="s">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4717,32 +5286,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="5">
         <v>2</v>
       </c>
     </row>
@@ -4750,7 +5319,7 @@
       <c r="A5" t="s">
         <v>217</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5">
@@ -4761,7 +5330,7 @@
       <c r="A6" t="s">
         <v>218</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="5">
         <v>4</v>
       </c>
       <c r="C6">
@@ -4772,7 +5341,7 @@
       <c r="A7" t="s">
         <v>219</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="5">
         <v>5</v>
       </c>
       <c r="C7">
@@ -4830,482 +5399,482 @@
     <col min="11" max="11" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" spans="1:11">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+    <row r="1" s="10" customFormat="1" spans="1:11">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="3">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5">
         <v>1</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="5" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="3">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5">
         <v>2</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="5" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="3">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5">
         <v>3</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="5" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="3">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5">
         <v>4</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3" t="s">
+      <c r="J5" s="5"/>
+      <c r="K5" s="5" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="3">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5">
         <v>5</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="5" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="3">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5">
         <v>6</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="3">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5">
         <v>7</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3" t="s">
+      <c r="J8" s="5"/>
+      <c r="K8" s="5" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="3">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5">
         <v>8</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="3">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5">
         <v>9</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="3">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5">
         <v>10</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3" t="s">
+      <c r="J11" s="5"/>
+      <c r="K11" s="5" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="3">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5">
         <v>11</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="3">
+      <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5">
         <v>12</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="3">
+      <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5">
         <v>13</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="3">
+      <c r="A16" s="5">
         <v>14</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5">
         <v>14</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="3">
+      <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5">
         <v>15</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="3">
+      <c r="A18" s="5">
         <v>16</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5">
         <v>16</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="3">
+      <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5">
         <v>17</v>
       </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="3">
+      <c r="A20" s="5">
         <v>18</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5">
         <v>18</v>
       </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="3">
+      <c r="A21" s="5">
         <v>19</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5">
         <v>19</v>
       </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="3">
+      <c r="A22" s="5">
         <v>20</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5">
         <v>20</v>
       </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="3">
+      <c r="A23" s="5">
         <v>21</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5">
         <v>21</v>
       </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="3">
+      <c r="A24" s="5">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="3">
+      <c r="A25" s="5">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="3">
+      <c r="A26" s="5">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="3">
+      <c r="A27" s="5">
         <v>25</v>
       </c>
     </row>
@@ -5321,8 +5890,8 @@
   <sheetPr/>
   <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5341,240 +5910,240 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="9">
         <v>43872.4145601852</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="N6" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="O6" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="P6" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="Q6" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="R6" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="S6" s="5" t="s">
+      <c r="S6" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="T6" s="5" t="s">
+      <c r="T6" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="U6" s="5" t="s">
+      <c r="U6" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="V6" s="5" t="s">
+      <c r="V6" s="7" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="8">
         <v>1</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="8">
         <v>1</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="8">
         <v>1</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="8">
         <v>1</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="8">
         <v>1</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="8">
         <v>1</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="8">
         <v>12</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="8">
         <v>4</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="8">
         <v>0</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="8">
         <v>0</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="8">
         <v>0</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="N7" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="8">
         <v>1</v>
       </c>
-      <c r="P7" s="6" t="s">
+      <c r="P7" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="Q7" s="6" t="s">
+      <c r="Q7" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="R7" s="6" t="s">
+      <c r="R7" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="S7" s="6" t="s">
+      <c r="S7" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="T7" s="6" t="s">
+      <c r="T7" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="U7" s="6" t="s">
+      <c r="U7" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="V7" s="7">
+      <c r="V7" s="9">
         <v>43849.4378935185</v>
       </c>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="8">
         <v>1</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="8">
         <v>1</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="8">
         <v>1</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="8">
         <v>1</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="8">
         <v>1</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="8">
         <v>1</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="8">
         <v>12</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="8">
         <v>4</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="8">
         <v>0</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="8">
         <v>0</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="8">
         <v>0</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="M8" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="N8" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="8">
         <v>1</v>
       </c>
-      <c r="P8" s="6" t="s">
+      <c r="P8" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="Q8" s="6" t="s">
+      <c r="Q8" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="R8" s="6" t="s">
+      <c r="R8" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="S8" s="6" t="s">
+      <c r="S8" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="T8" s="6" t="s">
+      <c r="T8" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="U8" s="6" t="s">
+      <c r="U8" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="V8" s="7">
+      <c r="V8" s="9">
         <v>43849.4378935185</v>
       </c>
     </row>
@@ -5584,176 +6153,176 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="7" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="9">
         <v>43837.5799305556</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="8">
         <v>1</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="9">
         <v>43837.625462963</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="8">
         <v>2</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="9">
         <v>43837.6255092593</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="8">
         <v>19</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="9">
         <v>43837.6255555556</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="8">
         <v>159</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="9">
         <v>43837.6309143519</v>
       </c>
     </row>
@@ -5780,58 +6349,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>298</v>
       </c>
     </row>
